--- a/DB_Catalog.xlsx
+++ b/DB_Catalog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" firstSheet="2" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Employees" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="110">
   <si>
     <t>ATTRIBUTE</t>
   </si>
@@ -165,15 +165,6 @@
     <t>Varchar(25)</t>
   </si>
   <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>Varchar(8)</t>
-  </si>
-  <si>
-    <t>Varchar(9)</t>
-  </si>
-  <si>
     <t>payment_id</t>
   </si>
   <si>
@@ -355,6 +346,12 @@
   </si>
   <si>
     <t>"medium roast, dark roast, whole bean"</t>
+  </si>
+  <si>
+    <t>decimal(17,2)</t>
+  </si>
+  <si>
+    <t>total_cost</t>
   </si>
 </sst>
 </file>
@@ -740,7 +737,7 @@
   <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -801,30 +798,30 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F3" t="s">
         <v>29</v>
       </c>
       <c r="G3" t="s">
-        <v>47</v>
+        <v>108</v>
       </c>
       <c r="H3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -856,22 +853,22 @@
         <v>44</v>
       </c>
       <c r="C5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F5" s="3">
         <v>43999</v>
       </c>
       <c r="G5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.35">
@@ -879,25 +876,25 @@
         <v>19</v>
       </c>
       <c r="B6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" t="s">
         <v>78</v>
-      </c>
-      <c r="C6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D6" t="s">
-        <v>80</v>
-      </c>
-      <c r="E6" t="s">
-        <v>81</v>
       </c>
       <c r="F6" s="3">
         <v>43999</v>
       </c>
       <c r="G6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -916,7 +913,7 @@
   <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -951,7 +948,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>10</v>
@@ -972,7 +969,7 @@
         <v>12</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -989,33 +986,33 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H3" t="s">
         <v>61</v>
       </c>
-      <c r="C3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F3" t="s">
-        <v>63</v>
-      </c>
-      <c r="G3" t="s">
-        <v>63</v>
-      </c>
-      <c r="H3" t="s">
-        <v>64</v>
-      </c>
       <c r="I3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -1047,10 +1044,10 @@
         <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D5" s="4">
         <v>9.5</v>
@@ -1059,10 +1056,10 @@
         <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H5">
         <v>118</v>
@@ -1088,7 +1085,7 @@
   <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1127,7 +1124,7 @@
         <v>16</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>28</v>
@@ -1152,27 +1149,27 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -1204,22 +1201,22 @@
         <v>45</v>
       </c>
       <c r="C5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -1237,8 +1234,8 @@
   </sheetPr>
   <dimension ref="A1:P5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1280,15 +1277,15 @@
         <v>24</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G2" s="2"/>
       <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
@@ -1301,24 +1298,27 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="C3" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="D3" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>108</v>
       </c>
       <c r="F3" t="s">
         <v>29</v>
       </c>
+      <c r="G3" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -1333,6 +1333,9 @@
         <v>1</v>
       </c>
       <c r="F4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1341,19 +1344,22 @@
         <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D5" t="s">
-        <v>97</v>
-      </c>
-      <c r="E5" s="3">
+        <v>94</v>
+      </c>
+      <c r="E5">
+        <v>23.49</v>
+      </c>
+      <c r="F5" s="3">
         <v>44007</v>
       </c>
-      <c r="F5" t="s">
-        <v>76</v>
+      <c r="G5" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1372,7 +1378,7 @@
   <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1405,7 +1411,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C2" t="s">
         <v>15</v>
@@ -1414,7 +1420,7 @@
         <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F2" t="s">
         <v>26</v>
@@ -1431,30 +1437,30 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -1483,22 +1489,22 @@
         <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F5" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H5">
         <v>5555555555</v>
@@ -1520,7 +1526,7 @@
   <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1553,13 +1559,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>29</v>
@@ -1583,10 +1589,10 @@
         <v>35</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -1597,45 +1603,45 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E3" t="s">
         <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G3" t="s">
-        <v>47</v>
+        <v>108</v>
       </c>
       <c r="H3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>47</v>
+        <v>108</v>
       </c>
       <c r="K3" t="s">
-        <v>47</v>
+        <v>108</v>
       </c>
       <c r="L3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="M3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -1679,19 +1685,19 @@
         <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C5" t="s">
         <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E5" s="3">
         <v>43999</v>
       </c>
       <c r="F5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G5" s="4">
         <v>16</v>
@@ -1700,7 +1706,7 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J5" s="4">
         <v>1.69</v>
@@ -1709,10 +1715,10 @@
         <v>2.3199999999999998</v>
       </c>
       <c r="L5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1731,7 +1737,7 @@
   <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1779,7 +1785,7 @@
         <v>39</v>
       </c>
       <c r="G2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="29" x14ac:dyDescent="0.35">
@@ -1787,19 +1793,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="D3" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="E3" t="s">
         <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>47</v>
+        <v>108</v>
       </c>
       <c r="G3" t="s">
         <v>46</v>
@@ -1825,12 +1831,12 @@
         <v>48</v>
       </c>
       <c r="G4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="G5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1849,7 +1855,7 @@
   <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1877,7 +1883,7 @@
       <c r="O1" s="6"/>
       <c r="P1" s="6"/>
       <c r="Q1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="29" x14ac:dyDescent="0.35">
@@ -1885,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
@@ -1894,7 +1900,7 @@
         <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="29" x14ac:dyDescent="0.35">
@@ -1902,21 +1908,21 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D3" t="s">
         <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -1936,7 +1942,7 @@
         <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C5" t="s">
         <v>44</v>
@@ -1964,8 +1970,8 @@
   </sheetPr>
   <dimension ref="A1:P5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1975,7 +1981,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="46" x14ac:dyDescent="1">
       <c r="A1" s="6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -2001,16 +2007,16 @@
         <v>41</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="29" x14ac:dyDescent="0.35">
@@ -2018,24 +2024,24 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D3" t="s">
         <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -2061,16 +2067,16 @@
         <v>44</v>
       </c>
       <c r="C5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D5" s="3">
         <v>43999</v>
       </c>
       <c r="E5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
